--- a/biology/Zoologie/Bécassine_de_Wilson/Bécassine_de_Wilson.xlsx
+++ b/biology/Zoologie/Bécassine_de_Wilson/Bécassine_de_Wilson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_de_Wilson</t>
+          <t>Bécassine_de_Wilson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallinago delicata
 La Bécassine de Wilson (Gallinago delicata) est une espèce d'oiseaux limicoles d'Amérique du Nord de la famille des scolopacidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_de_Wilson</t>
+          <t>Bécassine_de_Wilson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom est dédié à l'ornithologue Alexander Wilson (1766-1813).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_de_Wilson</t>
+          <t>Bécassine_de_Wilson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un oiseau au long bec fin et droit, dont la silhouette est très caractéristique. Son plumage brun, gris et rouille, présente des raies blanches sur le dos. La poitrine et la tête sont rayées, alors que le ventre est blanc.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_de_Wilson</t>
+          <t>Bécassine_de_Wilson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Voix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au printemps (surtout le matin et au crépuscule), des hou-hou-hou-hou-hou-hou vibrants sont produits par le froissement du vent dans les plumes du mâle et de la femelle en parade aérienne alors que les deux partenaires se laissent littéralement tomber en piqué vers le sol.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_de_Wilson</t>
+          <t>Bécassine_de_Wilson</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Habitat de nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se reproduit dans les champs, les pâturages humides ou inondés, les marais d'eau douce et les tourbières.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_de_Wilson</t>
+          <t>Bécassine_de_Wilson</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Nid</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid est construit dans une dépression à même le sol avec les tiges de plantes, des herbes et de la mousse.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_de_Wilson</t>
+          <t>Bécassine_de_Wilson</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau consomme des lombrics, des larves d'insectes et des crustacés.
 </t>
